--- a/estimation/sensorwise/Result_peak/peak_wDgMiniModel.xlsx
+++ b/estimation/sensorwise/Result_peak/peak_wDgMiniModel.xlsx
@@ -19975,10 +19975,10 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>-2.400335961297973</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -20009,10 +20009,10 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-1.263819505694171</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -20043,10 +20043,10 @@
         <v>25</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>-1.399647830363979</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -20145,10 +20145,10 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>-2.497234536138416</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -20349,10 +20349,10 @@
         <v>25</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>-4.034182821389233</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -20383,10 +20383,10 @@
         <v>24</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>-3.580334169754222</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -20434,10 +20434,10 @@
         <v>24</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>-3.850112515595047</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -20485,10 +20485,10 @@
         <v>26</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-3.773686157342208</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -20536,10 +20536,10 @@
         <v>24</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-3.822436190480534</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20553,10 +20553,10 @@
         <v>23</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>-2.222558433278937</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20587,10 +20587,10 @@
         <v>24</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-2.162477624667849</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20604,10 +20604,10 @@
         <v>26</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>-2.146470591254798</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20621,10 +20621,10 @@
         <v>25</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>-2.039297486271562</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20672,10 +20672,10 @@
         <v>26</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>-2.047796160430041</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20689,10 +20689,10 @@
         <v>24</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>-2.402285723667069</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -20893,10 +20893,10 @@
         <v>27</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>-1.711252858337986</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -20927,10 +20927,10 @@
         <v>34</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>-1.751717983768825</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -21046,10 +21046,10 @@
         <v>41</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>-0.9040835927848181</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -21097,10 +21097,10 @@
         <v>23</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.8484143966855351</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -21199,10 +21199,10 @@
         <v>41</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>-1.044727538710302</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -21318,10 +21318,10 @@
         <v>24</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>-2.047977786067952</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -21437,10 +21437,10 @@
         <v>25</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>-1.712867086467469</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -21692,10 +21692,10 @@
         <v>27</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>-0.8981604148943046</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -21760,10 +21760,10 @@
         <v>24</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>-0.915646261500259</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -21811,10 +21811,10 @@
         <v>27</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>-1.414579911954633</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -21981,10 +21981,10 @@
         <v>24</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>-1.667203853462342</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -21998,10 +21998,10 @@
         <v>38</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>-1.530763028899705</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -22043,16 +22043,16 @@
         <v>136</v>
       </c>
       <c r="B138">
+        <v>-1.523477762876382</v>
+      </c>
+      <c r="C138">
+        <v>37</v>
+      </c>
+      <c r="D138">
         <v>-1.580923365637824</v>
       </c>
-      <c r="C138">
+      <c r="E138">
         <v>71</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -22134,10 +22134,10 @@
         <v>35</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>-1.160816709615889</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -22168,10 +22168,10 @@
         <v>33</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>-1.378022961040812</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -22202,10 +22202,10 @@
         <v>23</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>-1.426208387555489</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -22746,10 +22746,10 @@
         <v>22</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>-2.463233767608795</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -22780,10 +22780,10 @@
         <v>24</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>-2.392154262287066</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -22831,10 +22831,10 @@
         <v>22</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>-2.590003695398369</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -22848,10 +22848,10 @@
         <v>25</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>-2.184314286001786</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -22899,10 +22899,10 @@
         <v>25</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>-2.664915555494029</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -22916,10 +22916,10 @@
         <v>24</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>-2.58350167108724</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -22967,10 +22967,10 @@
         <v>26</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>-2.946177378523556</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -23001,10 +23001,10 @@
         <v>24</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>-2.863864324547083</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -23052,10 +23052,10 @@
         <v>36</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>-2.238064998942587</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -23069,10 +23069,10 @@
         <v>22</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>-2.432977972989298</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -23120,10 +23120,10 @@
         <v>23</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>-2.197894391639259</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -23154,10 +23154,10 @@
         <v>23</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>-2.527331068288678</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -23613,10 +23613,10 @@
         <v>25</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>-1.470654865419647</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -23630,10 +23630,10 @@
         <v>24</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>-1.951616335927077</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -23647,10 +23647,10 @@
         <v>23</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>-1.628316488443874</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -23715,10 +23715,10 @@
         <v>26</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>-1.923802493821333</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -23732,10 +23732,10 @@
         <v>24</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>-1.852836632118076</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -23749,10 +23749,10 @@
         <v>27</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>-1.910059341191086</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -23800,10 +23800,10 @@
         <v>26</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>-2.189938105788487</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -23834,10 +23834,10 @@
         <v>28</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>-2.151382689347726</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -23868,10 +23868,10 @@
         <v>27</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>-2.190946994036175</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -23919,10 +23919,10 @@
         <v>26</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>-2.108549995114158</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -23987,10 +23987,10 @@
         <v>27</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>-2.032909345281543</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -24004,10 +24004,10 @@
         <v>27</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>-1.862603706718209</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -24021,10 +24021,10 @@
         <v>27</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>-1.864283083196066</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -24055,10 +24055,10 @@
         <v>28</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>-1.931997440149156</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -24361,10 +24361,10 @@
         <v>25</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>-2.03519589231657</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -25160,10 +25160,10 @@
         <v>32</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>-1.155825983719533</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -25585,10 +25585,10 @@
         <v>33</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>-2.615654298598101</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -25721,10 +25721,10 @@
         <v>22</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>-2.183363606702071</v>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -25738,10 +25738,10 @@
         <v>21</v>
       </c>
       <c r="D355">
-        <v>0</v>
+        <v>-2.060342275234648</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -25789,10 +25789,10 @@
         <v>20</v>
       </c>
       <c r="D358">
-        <v>0</v>
+        <v>-2.04855300661661</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -25806,10 +25806,10 @@
         <v>21</v>
       </c>
       <c r="D359">
-        <v>0</v>
+        <v>-1.864648669048617</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -25823,10 +25823,10 @@
         <v>21</v>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>-2.263643318384029</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -25840,10 +25840,10 @@
         <v>19</v>
       </c>
       <c r="D361">
-        <v>0</v>
+        <v>-1.90755606213336</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -25857,10 +25857,10 @@
         <v>21</v>
       </c>
       <c r="D362">
-        <v>0</v>
+        <v>-1.876991316174058</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -25959,10 +25959,10 @@
         <v>25</v>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>-2.744394183413752</v>
       </c>
       <c r="E368">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -26010,10 +26010,10 @@
         <v>23</v>
       </c>
       <c r="D371">
-        <v>0</v>
+        <v>-2.822007022189117</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -26027,10 +26027,10 @@
         <v>22</v>
       </c>
       <c r="D372">
-        <v>0</v>
+        <v>-2.568323413432993</v>
       </c>
       <c r="E372">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -26095,10 +26095,10 @@
         <v>27</v>
       </c>
       <c r="D376">
-        <v>0</v>
+        <v>-1.748055750191705</v>
       </c>
       <c r="E376">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -26129,10 +26129,10 @@
         <v>25</v>
       </c>
       <c r="D378">
-        <v>0</v>
+        <v>-1.679026059060393</v>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -26180,10 +26180,10 @@
         <v>31</v>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>-1.093911752515687</v>
       </c>
       <c r="E381">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -26282,10 +26282,10 @@
         <v>31</v>
       </c>
       <c r="D387">
-        <v>0</v>
+        <v>-1.447626642701242</v>
       </c>
       <c r="E387">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -26299,10 +26299,10 @@
         <v>27</v>
       </c>
       <c r="D388">
-        <v>0</v>
+        <v>-1.788459079233398</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -26333,10 +26333,10 @@
         <v>28</v>
       </c>
       <c r="D390">
-        <v>0</v>
+        <v>-2.013227751254694</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -26350,10 +26350,10 @@
         <v>33</v>
       </c>
       <c r="D391">
-        <v>0</v>
+        <v>-0.7806611986041337</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -26418,10 +26418,10 @@
         <v>33</v>
       </c>
       <c r="D395">
-        <v>0</v>
+        <v>-0.7628395997854296</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -26435,10 +26435,10 @@
         <v>27</v>
       </c>
       <c r="D396">
-        <v>0</v>
+        <v>-1.283070886895469</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -26520,10 +26520,10 @@
         <v>29</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>-1.09595342061333</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -26537,10 +26537,10 @@
         <v>28</v>
       </c>
       <c r="D402">
-        <v>0</v>
+        <v>-1.3701179352165</v>
       </c>
       <c r="E402">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -26554,10 +26554,10 @@
         <v>29</v>
       </c>
       <c r="D403">
-        <v>0</v>
+        <v>-1.558433815451639</v>
       </c>
       <c r="E403">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -26571,10 +26571,10 @@
         <v>29</v>
       </c>
       <c r="D404">
-        <v>0</v>
+        <v>-1.004826780636813</v>
       </c>
       <c r="E404">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -27047,10 +27047,10 @@
         <v>28</v>
       </c>
       <c r="D432">
-        <v>0</v>
+        <v>-2.488701106183962</v>
       </c>
       <c r="E432">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -27098,10 +27098,10 @@
         <v>39</v>
       </c>
       <c r="D435">
-        <v>0</v>
+        <v>-2.175224835731519</v>
       </c>
       <c r="E435">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -27149,10 +27149,10 @@
         <v>36</v>
       </c>
       <c r="D438">
-        <v>0</v>
+        <v>-2.25102079965331</v>
       </c>
       <c r="E438">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -27183,10 +27183,10 @@
         <v>28</v>
       </c>
       <c r="D440">
-        <v>0</v>
+        <v>-2.1269001412405</v>
       </c>
       <c r="E440">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -27336,10 +27336,10 @@
         <v>19</v>
       </c>
       <c r="D449">
-        <v>0</v>
+        <v>-2.741573204329042</v>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -27387,10 +27387,10 @@
         <v>18</v>
       </c>
       <c r="D452">
-        <v>0</v>
+        <v>-2.570931450605972</v>
       </c>
       <c r="E452">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -27404,10 +27404,10 @@
         <v>19</v>
       </c>
       <c r="D453">
-        <v>0</v>
+        <v>-2.933691824453053</v>
       </c>
       <c r="E453">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -27421,10 +27421,10 @@
         <v>18</v>
       </c>
       <c r="D454">
-        <v>0</v>
+        <v>-2.849992289176658</v>
       </c>
       <c r="E454">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -27438,10 +27438,10 @@
         <v>21</v>
       </c>
       <c r="D455">
-        <v>0</v>
+        <v>-1.926078970519843</v>
       </c>
       <c r="E455">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -27472,10 +27472,10 @@
         <v>19</v>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>-2.224799000044599</v>
       </c>
       <c r="E457">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -27523,10 +27523,10 @@
         <v>18</v>
       </c>
       <c r="D460">
-        <v>0</v>
+        <v>-2.195772064700643</v>
       </c>
       <c r="E460">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -27642,10 +27642,10 @@
         <v>21</v>
       </c>
       <c r="D467">
-        <v>0</v>
+        <v>-2.168212020380916</v>
       </c>
       <c r="E467">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -27659,10 +27659,10 @@
         <v>18</v>
       </c>
       <c r="D468">
-        <v>0</v>
+        <v>-2.328658979475485</v>
       </c>
       <c r="E468">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -27761,10 +27761,10 @@
         <v>33</v>
       </c>
       <c r="D474">
-        <v>0</v>
+        <v>-1.207877203407142</v>
       </c>
       <c r="E474">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -27795,10 +27795,10 @@
         <v>33</v>
       </c>
       <c r="D476">
-        <v>0</v>
+        <v>-1.380718964458583</v>
       </c>
       <c r="E476">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -27812,10 +27812,10 @@
         <v>33</v>
       </c>
       <c r="D477">
-        <v>0</v>
+        <v>-1.113986711226201</v>
       </c>
       <c r="E477">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -27846,10 +27846,10 @@
         <v>34</v>
       </c>
       <c r="D479">
-        <v>0</v>
+        <v>-1.386332613380251</v>
       </c>
       <c r="E479">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -27914,10 +27914,10 @@
         <v>33</v>
       </c>
       <c r="D483">
-        <v>0</v>
+        <v>-0.9515766294397285</v>
       </c>
       <c r="E483">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -28067,10 +28067,10 @@
         <v>28</v>
       </c>
       <c r="D492">
-        <v>0</v>
+        <v>-1.670392102885916</v>
       </c>
       <c r="E492">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -28135,10 +28135,10 @@
         <v>27</v>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>-1.684029929585892</v>
       </c>
       <c r="E496">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -28526,10 +28526,10 @@
         <v>40</v>
       </c>
       <c r="D519">
-        <v>0</v>
+        <v>-0.2116680731714093</v>
       </c>
       <c r="E519">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -28543,10 +28543,10 @@
         <v>22</v>
       </c>
       <c r="D520">
-        <v>0</v>
+        <v>-2.665085688347061</v>
       </c>
       <c r="E520">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -28611,10 +28611,10 @@
         <v>22</v>
       </c>
       <c r="D524">
-        <v>0</v>
+        <v>-2.204501199466891</v>
       </c>
       <c r="E524">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -28662,10 +28662,10 @@
         <v>21</v>
       </c>
       <c r="D527">
-        <v>0</v>
+        <v>-1.708115028561951</v>
       </c>
       <c r="E527">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -28849,10 +28849,10 @@
         <v>21</v>
       </c>
       <c r="D538">
-        <v>0</v>
+        <v>-1.765491935065487</v>
       </c>
       <c r="E538">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -29121,10 +29121,10 @@
         <v>24</v>
       </c>
       <c r="D554">
-        <v>0</v>
+        <v>-2.84463178956702</v>
       </c>
       <c r="E554">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -29206,10 +29206,10 @@
         <v>25</v>
       </c>
       <c r="D559">
-        <v>0</v>
+        <v>-2.836123773254636</v>
       </c>
       <c r="E559">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -29353,16 +29353,16 @@
         <v>566</v>
       </c>
       <c r="B568">
+        <v>-1.630909350830349</v>
+      </c>
+      <c r="C568">
+        <v>43</v>
+      </c>
+      <c r="D568">
         <v>-2.523663169797135</v>
       </c>
-      <c r="C568">
+      <c r="E568">
         <v>77</v>
-      </c>
-      <c r="D568">
-        <v>0</v>
-      </c>
-      <c r="E568">
-        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -29574,16 +29574,16 @@
         <v>579</v>
       </c>
       <c r="B581">
+        <v>-1.828454858361285</v>
+      </c>
+      <c r="C581">
+        <v>41</v>
+      </c>
+      <c r="D581">
         <v>-2.302513107016611</v>
       </c>
-      <c r="C581">
+      <c r="E581">
         <v>78</v>
-      </c>
-      <c r="D581">
-        <v>0</v>
-      </c>
-      <c r="E581">
-        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -29642,16 +29642,16 @@
         <v>583</v>
       </c>
       <c r="B585">
+        <v>-1.847717331297018</v>
+      </c>
+      <c r="C585">
+        <v>41</v>
+      </c>
+      <c r="D585">
         <v>-2.148706060166061</v>
       </c>
-      <c r="C585">
+      <c r="E585">
         <v>76</v>
-      </c>
-      <c r="D585">
-        <v>0</v>
-      </c>
-      <c r="E585">
-        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -29665,10 +29665,10 @@
         <v>31</v>
       </c>
       <c r="D586">
-        <v>0</v>
+        <v>-2.101920703697372</v>
       </c>
       <c r="E586">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -29676,16 +29676,16 @@
         <v>585</v>
       </c>
       <c r="B587">
+        <v>-1.871289655936062</v>
+      </c>
+      <c r="C587">
+        <v>43</v>
+      </c>
+      <c r="D587">
         <v>-2.356254724681324</v>
       </c>
-      <c r="C587">
+      <c r="E587">
         <v>76</v>
-      </c>
-      <c r="D587">
-        <v>0</v>
-      </c>
-      <c r="E587">
-        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -29716,10 +29716,10 @@
         <v>27</v>
       </c>
       <c r="D589">
-        <v>0</v>
+        <v>-2.258537075893947</v>
       </c>
       <c r="E589">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -30192,10 +30192,10 @@
         <v>25</v>
       </c>
       <c r="D617">
-        <v>0</v>
+        <v>-3.621793954177691</v>
       </c>
       <c r="E617">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -30209,10 +30209,10 @@
         <v>25</v>
       </c>
       <c r="D618">
-        <v>0</v>
+        <v>-3.61885457187016</v>
       </c>
       <c r="E618">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -30549,10 +30549,10 @@
         <v>24</v>
       </c>
       <c r="D638">
-        <v>0</v>
+        <v>-3.745719677278915</v>
       </c>
       <c r="E638">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -30617,10 +30617,10 @@
         <v>22</v>
       </c>
       <c r="D642">
-        <v>0</v>
+        <v>-3.61708898746388</v>
       </c>
       <c r="E642">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -30702,10 +30702,10 @@
         <v>30</v>
       </c>
       <c r="D647">
-        <v>0</v>
+        <v>-0.7854600739353244</v>
       </c>
       <c r="E647">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -30736,10 +30736,10 @@
         <v>26</v>
       </c>
       <c r="D649">
-        <v>0</v>
+        <v>-1.035062507466016</v>
       </c>
       <c r="E649">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -30787,10 +30787,10 @@
         <v>27</v>
       </c>
       <c r="D652">
-        <v>0</v>
+        <v>-1.219974185219354</v>
       </c>
       <c r="E652">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -30821,10 +30821,10 @@
         <v>22</v>
       </c>
       <c r="D654">
-        <v>0</v>
+        <v>-0.6899568107560154</v>
       </c>
       <c r="E654">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -30855,10 +30855,10 @@
         <v>24</v>
       </c>
       <c r="D656">
-        <v>0</v>
+        <v>-0.9243620129875363</v>
       </c>
       <c r="E656">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -30872,10 +30872,10 @@
         <v>27</v>
       </c>
       <c r="D657">
-        <v>0</v>
+        <v>-0.8226106703444962</v>
       </c>
       <c r="E657">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -31110,10 +31110,10 @@
         <v>26</v>
       </c>
       <c r="D671">
-        <v>0</v>
+        <v>-1.63672567835284</v>
       </c>
       <c r="E671">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -31161,10 +31161,10 @@
         <v>26</v>
       </c>
       <c r="D674">
-        <v>0</v>
+        <v>-1.550804923315811</v>
       </c>
       <c r="E674">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -31229,10 +31229,10 @@
         <v>26</v>
       </c>
       <c r="D678">
-        <v>0</v>
+        <v>-1.851465784457072</v>
       </c>
       <c r="E678">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -31263,10 +31263,10 @@
         <v>23</v>
       </c>
       <c r="D680">
-        <v>0</v>
+        <v>-2.03693205649716</v>
       </c>
       <c r="E680">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -31297,10 +31297,10 @@
         <v>23</v>
       </c>
       <c r="D682">
-        <v>0</v>
+        <v>-1.185975412505755</v>
       </c>
       <c r="E682">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -31314,10 +31314,10 @@
         <v>21</v>
       </c>
       <c r="D683">
-        <v>0</v>
+        <v>-2.164606802209751</v>
       </c>
       <c r="E683">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -31348,10 +31348,10 @@
         <v>23</v>
       </c>
       <c r="D685">
-        <v>0</v>
+        <v>-2.19792577286275</v>
       </c>
       <c r="E685">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -31399,10 +31399,10 @@
         <v>23</v>
       </c>
       <c r="D688">
-        <v>0</v>
+        <v>-1.315053501522012</v>
       </c>
       <c r="E688">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -31467,10 +31467,10 @@
         <v>32</v>
       </c>
       <c r="D692">
-        <v>0</v>
+        <v>-0.795459758949624</v>
       </c>
       <c r="E692">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -31484,10 +31484,10 @@
         <v>29</v>
       </c>
       <c r="D693">
-        <v>0</v>
+        <v>-0.8346247489281358</v>
       </c>
       <c r="E693">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -31501,10 +31501,10 @@
         <v>31</v>
       </c>
       <c r="D694">
-        <v>0</v>
+        <v>-1.001942052829878</v>
       </c>
       <c r="E694">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -31518,10 +31518,10 @@
         <v>31</v>
       </c>
       <c r="D695">
-        <v>0</v>
+        <v>-0.8537865859229575</v>
       </c>
       <c r="E695">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -31552,10 +31552,10 @@
         <v>29</v>
       </c>
       <c r="D697">
-        <v>0</v>
+        <v>-0.8746805673468563</v>
       </c>
       <c r="E697">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -31569,10 +31569,10 @@
         <v>32</v>
       </c>
       <c r="D698">
-        <v>0</v>
+        <v>-1.381890282618565</v>
       </c>
       <c r="E698">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -31603,10 +31603,10 @@
         <v>39</v>
       </c>
       <c r="D700">
-        <v>0</v>
+        <v>-0.8933376195619261</v>
       </c>
       <c r="E700">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -31637,10 +31637,10 @@
         <v>33</v>
       </c>
       <c r="D702">
-        <v>0</v>
+        <v>-0.5127267286725473</v>
       </c>
       <c r="E702">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -31688,10 +31688,10 @@
         <v>29</v>
       </c>
       <c r="D705">
-        <v>0</v>
+        <v>-1.339926134515804</v>
       </c>
       <c r="E705">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -31722,10 +31722,10 @@
         <v>30</v>
       </c>
       <c r="D707">
-        <v>0</v>
+        <v>-0.9916320286213982</v>
       </c>
       <c r="E707">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="708" spans="1:5">
@@ -31926,10 +31926,10 @@
         <v>28</v>
       </c>
       <c r="D719">
-        <v>0</v>
+        <v>-1.529902780586807</v>
       </c>
       <c r="E719">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -32011,10 +32011,10 @@
         <v>27</v>
       </c>
       <c r="D724">
-        <v>0</v>
+        <v>-1.667582536940553</v>
       </c>
       <c r="E724">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="725" spans="1:5">
@@ -32147,10 +32147,10 @@
         <v>27</v>
       </c>
       <c r="D732">
-        <v>0</v>
+        <v>-1.439205847682586</v>
       </c>
       <c r="E732">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="733" spans="1:5">
@@ -32691,10 +32691,10 @@
         <v>29</v>
       </c>
       <c r="D764">
-        <v>0</v>
+        <v>-1.986016222320667</v>
       </c>
       <c r="E764">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -32708,10 +32708,10 @@
         <v>27</v>
       </c>
       <c r="D765">
-        <v>0</v>
+        <v>-2.147580808758864</v>
       </c>
       <c r="E765">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -32759,10 +32759,10 @@
         <v>29</v>
       </c>
       <c r="D768">
-        <v>0</v>
+        <v>-1.697426441389688</v>
       </c>
       <c r="E768">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -32838,16 +32838,16 @@
         <v>771</v>
       </c>
       <c r="B773">
+        <v>-0.06185482549578349</v>
+      </c>
+      <c r="C773">
+        <v>0</v>
+      </c>
+      <c r="D773">
         <v>-3.592723268431109</v>
       </c>
-      <c r="C773">
+      <c r="E773">
         <v>38</v>
-      </c>
-      <c r="D773">
-        <v>0</v>
-      </c>
-      <c r="E773">
-        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -32878,10 +32878,10 @@
         <v>29</v>
       </c>
       <c r="D775">
-        <v>0</v>
+        <v>-1.499847516884018</v>
       </c>
       <c r="E775">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -32980,10 +32980,10 @@
         <v>25</v>
       </c>
       <c r="D781">
-        <v>0</v>
+        <v>-2.259478939620428</v>
       </c>
       <c r="E781">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -32997,10 +32997,10 @@
         <v>23</v>
       </c>
       <c r="D782">
-        <v>0</v>
+        <v>-2.273307378177533</v>
       </c>
       <c r="E782">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -33218,10 +33218,10 @@
         <v>25</v>
       </c>
       <c r="D795">
-        <v>0</v>
+        <v>-2.223142271383789</v>
       </c>
       <c r="E795">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="796" spans="1:5">
@@ -33252,10 +33252,10 @@
         <v>25</v>
       </c>
       <c r="D797">
-        <v>0</v>
+        <v>-2.165510929835317</v>
       </c>
       <c r="E797">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="798" spans="1:5">
@@ -33592,10 +33592,10 @@
         <v>24</v>
       </c>
       <c r="D817">
-        <v>0</v>
+        <v>-1.635603444397192</v>
       </c>
       <c r="E817">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="818" spans="1:5">
@@ -33881,10 +33881,10 @@
         <v>24</v>
       </c>
       <c r="D834">
-        <v>0</v>
+        <v>-1.971027919415984</v>
       </c>
       <c r="E834">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="835" spans="1:5">
@@ -34102,10 +34102,10 @@
         <v>26</v>
       </c>
       <c r="D847">
-        <v>0</v>
+        <v>-2.439918696615434</v>
       </c>
       <c r="E847">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="848" spans="1:5">
@@ -34221,10 +34221,10 @@
         <v>20</v>
       </c>
       <c r="D854">
-        <v>0</v>
+        <v>-2.991957040201188</v>
       </c>
       <c r="E854">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="855" spans="1:5">
@@ -34289,10 +34289,10 @@
         <v>20</v>
       </c>
       <c r="D858">
-        <v>0</v>
+        <v>-3.043210208781074</v>
       </c>
       <c r="E858">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="859" spans="1:5">
@@ -34391,10 +34391,10 @@
         <v>24</v>
       </c>
       <c r="D864">
-        <v>0</v>
+        <v>-2.761741730615145</v>
       </c>
       <c r="E864">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="865" spans="1:5">
@@ -34425,10 +34425,10 @@
         <v>23</v>
       </c>
       <c r="D866">
-        <v>0</v>
+        <v>-3.174818704876908</v>
       </c>
       <c r="E866">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="867" spans="1:5">
@@ -34459,10 +34459,10 @@
         <v>22</v>
       </c>
       <c r="D868">
-        <v>0</v>
+        <v>-3.041765282750005</v>
       </c>
       <c r="E868">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="869" spans="1:5">
@@ -34527,10 +34527,10 @@
         <v>23</v>
       </c>
       <c r="D872">
-        <v>0</v>
+        <v>-3.421464968439248</v>
       </c>
       <c r="E872">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="873" spans="1:5">
@@ -34578,10 +34578,10 @@
         <v>23</v>
       </c>
       <c r="D875">
-        <v>0</v>
+        <v>-3.515183809098315</v>
       </c>
       <c r="E875">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="876" spans="1:5">
@@ -34595,10 +34595,10 @@
         <v>23</v>
       </c>
       <c r="D876">
-        <v>0</v>
+        <v>-3.053732013200083</v>
       </c>
       <c r="E876">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="877" spans="1:5">
